--- a/docs/conv_receptive_field.xlsx
+++ b/docs/conv_receptive_field.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcoady/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcoady/Code/replearn/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0544F386-108A-D341-B435-AE221EF929F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E6CD77-1278-344B-944F-E88267DFE27E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28580" yWindow="1680" windowWidth="22800" windowHeight="17440" xr2:uid="{54D1EB8D-704D-9141-9DC3-1CE963CC314B}"/>
+    <workbookView xWindow="7260" yWindow="2860" windowWidth="22800" windowHeight="17440" xr2:uid="{54D1EB8D-704D-9141-9DC3-1CE963CC314B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66010E9-F526-7946-B96E-48C3F1186E99}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,20 +541,6 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>512</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>1280</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -584,6 +570,12 @@
       <c r="A12">
         <f t="shared" si="2"/>
         <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <f>512/16000</f>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
